--- a/flattened.xlsx
+++ b/flattened.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,74 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/flattened.xlsx
+++ b/flattened.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>PAT_ENC_CSN_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,77 +456,62 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>fieldA-1</t>
+          <t>RX_ORDER_NAME-1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>fieldB-1</t>
+          <t>ORDER_START_DTTM-1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>fieldC-1</t>
+          <t>DURATION_IN_DAYS-1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fieldA-2</t>
+          <t>RX_ORDER_NAME-2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>fieldB-2</t>
+          <t>ORDER_START_DTTM-2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>fieldC-2</t>
+          <t>DURATION_IN_DAYS-2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>fieldA-3</t>
+          <t>RX_ORDER_NAME-3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>fieldB-3</t>
+          <t>ORDER_START_DTTM-3</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>fieldC-3</t>
+          <t>DURATION_IN_DAYS-3</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>fieldA-4</t>
+          <t>RX_ORDER_NAME-4</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>fieldB-4</t>
+          <t>ORDER_START_DTTM-4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>fieldC-4</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>fieldA-5</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>fieldB-5</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>fieldC-5</t>
+          <t>DURATION_IN_DAYS-4</t>
         </is>
       </c>
     </row>
@@ -550,50 +535,41 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>fg</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>xc</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>sdaf</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>rew</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>efg</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>sfgh</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -615,70 +591,29 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>th</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>rst</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>96</v>
       </c>
       <c r="H3" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>sth</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>dfgh</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>fjy</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>ae</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>85.76000000000001</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>zc</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>dfgh</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>171.52</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>vbn</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>fsgh</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -700,30 +635,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>343.04</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>fdgs</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ytd</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
-        <v>686.08</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>bnm</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>sfgh</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45.2</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -731,9 +658,6 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,17 +679,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1372.16</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>yu</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>rew</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.3</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -776,9 +696,6 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -809,9 +726,6 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -844,9 +758,6 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/flattened.xlsx
+++ b/flattened.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PAT_ENC_CSN_ID</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,62 +456,62 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RX_ORDER_NAME-1</t>
+          <t>Rx-1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ORDER_START_DTTM-1</t>
+          <t>Start-1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DURATION_IN_DAYS-1</t>
+          <t>DOT-1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>RX_ORDER_NAME-2</t>
+          <t>Rx-2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ORDER_START_DTTM-2</t>
+          <t>Start-2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DURATION_IN_DAYS-2</t>
+          <t>DOT-2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>RX_ORDER_NAME-3</t>
+          <t>Rx-3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ORDER_START_DTTM-3</t>
+          <t>Start-3</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>DURATION_IN_DAYS-3</t>
+          <t>DOT-3</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>RX_ORDER_NAME-4</t>
+          <t>Rx-4</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ORDER_START_DTTM-4</t>
+          <t>Start-4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>DURATION_IN_DAYS-4</t>
+          <t>DOT-4</t>
         </is>
       </c>
     </row>
